--- a/registros/data/usuarios_vendedores.xlsx
+++ b/registros/data/usuarios_vendedores.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas Callamullo\Documents\Visual Studio Code\Proyecto_NoCountry_\registros\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC677F0-01B7-45E3-9F18-1BF4F27A6FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,184 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password1</t>
+  </si>
+  <si>
+    <t>password2</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>cellphone</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>Córdoba</t>
+  </si>
+  <si>
+    <t>Calle Falsa 123</t>
+  </si>
+  <si>
+    <t>Calle Falsa 124</t>
+  </si>
+  <si>
+    <t>Calle Falsa 125</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>Calle Falsa 126</t>
+  </si>
+  <si>
+    <t>Calle Falsa 127</t>
+  </si>
+  <si>
+    <t>Calle Falsa 128</t>
+  </si>
+  <si>
+    <t>Calle Falsa 129</t>
+  </si>
+  <si>
+    <t>Calle Falsa 130</t>
+  </si>
+  <si>
+    <t>Calle Falsa 131</t>
+  </si>
+  <si>
+    <t>Calle Falsa 132</t>
+  </si>
+  <si>
+    <t>seller</t>
+  </si>
+  <si>
+    <t>name_store</t>
+  </si>
+  <si>
+    <t>empresa1@gmail.com</t>
+  </si>
+  <si>
+    <t>empresa2@gmail.com</t>
+  </si>
+  <si>
+    <t>empresa3@gmail.com</t>
+  </si>
+  <si>
+    <t>empresa4@gmail.com</t>
+  </si>
+  <si>
+    <t>empresa5@gmail.com</t>
+  </si>
+  <si>
+    <t>empresa6@gmail.com</t>
+  </si>
+  <si>
+    <t>empresa7@gmail.com</t>
+  </si>
+  <si>
+    <t>empresa8@gmail.com</t>
+  </si>
+  <si>
+    <t>empresa9@gmail.com</t>
+  </si>
+  <si>
+    <t>empresa110@gmail.com</t>
+  </si>
+  <si>
+    <t>Saul</t>
+  </si>
+  <si>
+    <t>Goodman</t>
+  </si>
+  <si>
+    <t>Empresa Ficticia 1</t>
+  </si>
+  <si>
+    <t>Empresa Ficticia 2</t>
+  </si>
+  <si>
+    <t>Empresa Ficticia 3</t>
+  </si>
+  <si>
+    <t>Empresa Ficticia 4</t>
+  </si>
+  <si>
+    <t>Empresa Ficticia 5</t>
+  </si>
+  <si>
+    <t>Empresa Ficticia 6</t>
+  </si>
+  <si>
+    <t>Empresa Ficticia 7</t>
+  </si>
+  <si>
+    <t>Empresa Ficticia 8</t>
+  </si>
+  <si>
+    <t>Empresa Ficticia 9</t>
+  </si>
+  <si>
+    <t>Empresa Ficticia 10</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Verdulería</t>
+  </si>
+  <si>
+    <t>Supermercado</t>
+  </si>
+  <si>
+    <t>Panadería</t>
+  </si>
+  <si>
+    <t>Restaurante</t>
+  </si>
+  <si>
+    <t>Buffet</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -37,7 +215,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,14 +223,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +572,427 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1234</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1234</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="6">
+        <v>3515437688</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1234</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1234</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="6">
+        <v>3515437689</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1234</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1234</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="6">
+        <v>3515437690</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1234</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1234</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="6">
+        <v>3515437691</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1234</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1234</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="6">
+        <v>3515437692</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1234</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1234</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="6">
+        <v>3515437693</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1234</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1234</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="6">
+        <v>3515437694</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1234</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1234</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="6">
+        <v>3515437695</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1234</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1234</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="6">
+        <v>3515437696</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1234</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1234</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="6">
+        <v>3515437697</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{28B5FEA3-C638-4BD5-AE06-4972151F6D8E}"/>
+    <hyperlink ref="B3:B11" r:id="rId2" display="empresa1@gmail.com" xr:uid="{0C770D72-F03E-4B01-8B1B-347568DCAB15}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{2A8A3E4B-3A4C-4E9F-A66F-BC8917AA6E47}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{A2621C41-1973-479C-A22A-7EABA35AB249}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{846DD75A-F5BE-4E56-835F-2F633AFEA808}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{F7546104-69B2-4414-96F4-88F25510519C}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{D2F28CB9-04B2-45E6-A587-D04269817701}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{A51538ED-33EE-4128-B8BC-5B7B2E2234E9}"/>
+    <hyperlink ref="B9" r:id="rId9" xr:uid="{EF00CCBA-E593-4D50-921A-78C29ED64BAC}"/>
+    <hyperlink ref="B10" r:id="rId10" xr:uid="{7EE49640-9FCE-4EBD-95B9-9F7A089A3E9A}"/>
+    <hyperlink ref="B11" r:id="rId11" xr:uid="{9E3CF183-A500-48B8-A884-B43AA3A6D66F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/registros/data/usuarios_vendedores.xlsx
+++ b/registros/data/usuarios_vendedores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas Callamullo\Documents\Visual Studio Code\Proyecto_NoCountry_\registros\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC677F0-01B7-45E3-9F18-1BF4F27A6FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6FF521-884C-402B-A009-D59A036F84EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
   <si>
     <t>email</t>
   </si>
@@ -132,36 +132,6 @@
     <t>Goodman</t>
   </si>
   <si>
-    <t>Empresa Ficticia 1</t>
-  </si>
-  <si>
-    <t>Empresa Ficticia 2</t>
-  </si>
-  <si>
-    <t>Empresa Ficticia 3</t>
-  </si>
-  <si>
-    <t>Empresa Ficticia 4</t>
-  </si>
-  <si>
-    <t>Empresa Ficticia 5</t>
-  </si>
-  <si>
-    <t>Empresa Ficticia 6</t>
-  </si>
-  <si>
-    <t>Empresa Ficticia 7</t>
-  </si>
-  <si>
-    <t>Empresa Ficticia 8</t>
-  </si>
-  <si>
-    <t>Empresa Ficticia 9</t>
-  </si>
-  <si>
-    <t>Empresa Ficticia 10</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
@@ -178,6 +148,54 @@
   </si>
   <si>
     <t>Buffet</t>
+  </si>
+  <si>
+    <t>Verdulería Ficticia 1</t>
+  </si>
+  <si>
+    <t>Verdulería Ficticia 2</t>
+  </si>
+  <si>
+    <t>Super Mercado Ficticio 1</t>
+  </si>
+  <si>
+    <t>Super Mercado Ficticio 2</t>
+  </si>
+  <si>
+    <t>Lalo</t>
+  </si>
+  <si>
+    <t>Salamanca</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Wexler</t>
+  </si>
+  <si>
+    <t>Gustavo</t>
+  </si>
+  <si>
+    <t>Fring</t>
+  </si>
+  <si>
+    <t>Los Pollos Hermanos 1</t>
+  </si>
+  <si>
+    <t>Los Pollos Hermanos 2</t>
+  </si>
+  <si>
+    <t>Los Pollos Hermanos 3</t>
+  </si>
+  <si>
+    <t>Los Pollos Hermanos 4</t>
+  </si>
+  <si>
+    <t>Panadería Ficticia 1</t>
+  </si>
+  <si>
+    <t>Panadería Ficticia 2</t>
   </si>
 </sst>
 </file>
@@ -576,12 +594,12 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
@@ -607,7 +625,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -630,7 +648,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>23</v>
@@ -642,7 +660,7 @@
         <v>1234</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>33</v>
@@ -665,7 +683,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>24</v>
@@ -677,7 +695,7 @@
         <v>1234</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>33</v>
@@ -700,7 +718,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>25</v>
@@ -712,13 +730,13 @@
         <v>1234</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H4" s="6">
         <v>3515437690</v>
@@ -735,7 +753,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>26</v>
@@ -747,13 +765,13 @@
         <v>1234</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H5" s="6">
         <v>3515437691</v>
@@ -770,7 +788,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>27</v>
@@ -782,13 +800,13 @@
         <v>1234</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="H6" s="6">
         <v>3515437692</v>
@@ -805,7 +823,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>28</v>
@@ -817,13 +835,13 @@
         <v>1234</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="6">
         <v>3515437693</v>
@@ -840,7 +858,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>29</v>
@@ -852,13 +870,13 @@
         <v>1234</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="G8" s="6" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H8" s="6">
         <v>3515437694</v>
@@ -875,7 +893,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>30</v>
@@ -887,13 +905,13 @@
         <v>1234</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="G9" s="6" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H9" s="6">
         <v>3515437695</v>
@@ -910,7 +928,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>31</v>
@@ -922,13 +940,13 @@
         <v>1234</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="H10" s="6">
         <v>3515437696</v>
@@ -945,7 +963,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>32</v>
@@ -957,13 +975,13 @@
         <v>1234</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="H11" s="6">
         <v>3515437697</v>

--- a/registros/data/usuarios_vendedores.xlsx
+++ b/registros/data/usuarios_vendedores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas Callamullo\Documents\Visual Studio Code\Proyecto_NoCountry_\registros\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\.vscode\c20-12-m-python-react\registros\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6FF521-884C-402B-A009-D59A036F84EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D298867B-E5FD-48C6-8DBD-CA766C2DF6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
   <si>
     <t>email</t>
   </si>
@@ -196,6 +196,66 @@
   </si>
   <si>
     <t>Panadería Ficticia 2</t>
+  </si>
+  <si>
+    <t>imagen</t>
+  </si>
+  <si>
+    <t>banner</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/9e/7d/9b/9e7d9b3622004436b4c10ad16f80f882.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/ab/01/9a/ab019ae53ebdab9e2e03e257445c308f.jpg</t>
+  </si>
+  <si>
+    <t>https://es.pinterest.com/pin/739505201342205174/</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/3b/96/f2/3b96f2a45a8cc3bb40dbf2cb72bfff11.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/e3/bf/90/e3bf9050d420bb964666d3dcbe458d66.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/3e/f5/34/3ef534c55f290ed21cbccba76cda8115.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/9b/1b/95/9b1b95371304a36dd2f23adf05db817d.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/b3/d1/a3/b3d1a349f69d8d85f1946c02f7d04276.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/bb/4f/3b/bb4f3b8194a3d115064a557ff8ef17bd.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/d5/24/c0/d524c0fbc566a8c9921318b6ede64b8b.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/8d/bf/56/8dbf56266c7362cf1608f84702d40d3b.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/02/e7/6d/02e76de193dbe400b104a5827506dbf1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/b8/63/3a/b8633aa95111071eb6f93e79f9cbb90a.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/de/9a/8a/de9a8aeff07f3da7b1b7dd209dd6ce62.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/6e/4c/3b/6e4c3bdd3cb8a2d34954953f3ab85745.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/58/33/94/58339419436bb7e018dcc464fbebb25d.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/53/04/72/53047231c8714017a0ee076bd0b1c4ad.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/61/f7/6c/61f76cb81ce637cfbd26e8f58f8942c1.jpg</t>
   </si>
 </sst>
 </file>
@@ -233,7 +293,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -293,12 +353,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -310,6 +394,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -591,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,9 +695,10 @@
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -645,8 +732,14 @@
       <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="L1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -680,8 +773,14 @@
       <c r="K2" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="L2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -715,8 +814,14 @@
       <c r="K3" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -750,8 +855,14 @@
       <c r="K4" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -785,8 +896,14 @@
       <c r="K5" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="L5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -820,8 +937,14 @@
       <c r="K6" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="L6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -855,8 +978,14 @@
       <c r="K7" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="L7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -890,8 +1019,11 @@
       <c r="K8" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="L8" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -925,8 +1057,14 @@
       <c r="K9" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="L9" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -960,8 +1098,11 @@
       <c r="K10" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="L10" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -994,6 +1135,12 @@
       </c>
       <c r="K11" s="6" t="s">
         <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
